--- a/results/mod1.age10.eff.COMB.xlsx
+++ b/results/mod1.age10.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.162188840095577</v>
+        <v>0.162187152179455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0195522217429344</v>
+        <v>0.0195521109670427</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123867189661685</v>
+        <v>0.123865718862321</v>
       </c>
       <c r="F2" t="n">
-        <v>0.200510490529469</v>
+        <v>0.200508585496589</v>
       </c>
       <c r="G2" t="n">
-        <v>8.29516165620347</v>
+        <v>8.29512232478834</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000000000000000108437639610836</v>
+        <v>0.00000000000000010847352457176</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0576459054870318</v>
+        <v>-0.0576438689321341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0187811256458017</v>
+        <v>0.0187810339667813</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0944562353419247</v>
+        <v>-0.0944540190994488</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.020835575632139</v>
+        <v>-0.0208337187648193</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.06935306084372</v>
+        <v>-3.0692596070105</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00214522905365671</v>
+        <v>0.00214590028294881</v>
       </c>
     </row>
   </sheetData>
